--- a/NivelBasico/Módulo 4 - Fórmulas.xlsx
+++ b/NivelBasico/Módulo 4 - Fórmulas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CÁMARA DE COMERCIO EXTERIOR\1. Curso de Excel Profesional\1. Excel Básico\Recursos\Módulo 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Nik Denilson\Cursos\EXCEL\NivelBasico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B58163-F56E-4FF3-93F2-9C1CE9842089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB88322-A434-4629-8E1A-1A1AC6EC07BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="769" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="29" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="216">
   <si>
     <t>A</t>
   </si>
@@ -2705,6 +2705,15 @@
   </si>
   <si>
     <t>Calcular el promedio de edades</t>
+  </si>
+  <si>
+    <t>=PRODUCTO(E8:F8)</t>
+  </si>
+  <si>
+    <t>=((1+F36)^(F38/F40))-1</t>
+  </si>
+  <si>
+    <t>=F57^2+2*F57*F59+F59^2</t>
   </si>
 </sst>
 </file>
@@ -3138,7 +3147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -3784,6 +3793,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3805,7 +3842,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -3816,9 +3853,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3837,19 +3871,16 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -3876,7 +3907,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
@@ -3891,11 +3922,11 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3906,11 +3937,11 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3918,11 +3949,11 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3934,371 +3965,355 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="29" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="35" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="41" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="37" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="46" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="35" fillId="3" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="41" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4314,12 +4329,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="52" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="51" fillId="2" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4329,18 +4340,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4352,11 +4363,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4372,7 +4383,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4384,7 +4395,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4392,7 +4403,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4400,7 +4411,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4408,15 +4419,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4464,14 +4475,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="54" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4488,11 +4491,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4504,7 +4507,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4516,7 +4519,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4536,7 +4539,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -4592,10 +4595,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="58" fillId="2" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="10" fontId="53" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4640,11 +4639,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4692,7 +4691,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4716,15 +4715,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4740,39 +4739,39 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4814,6 +4813,24 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="54" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -6536,9 +6553,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6576,9 +6593,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6611,26 +6628,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6663,26 +6663,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6861,150 +6844,150 @@
   </sheetPr>
   <dimension ref="B8:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="6"/>
-    <col min="3" max="3" width="8.109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="0.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="6"/>
-    <col min="8" max="8" width="13" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="0.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="6"/>
-    <col min="12" max="12" width="14.109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="6"/>
+    <col min="1" max="1" width="2" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="5"/>
+    <col min="3" max="3" width="8.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="0.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="5"/>
+    <col min="8" max="8" width="13" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="0.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" style="5"/>
+    <col min="12" max="12" width="14.109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:14" ht="2.1" customHeight="1">
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
     </row>
     <row r="9" spans="2:14" ht="2.1" customHeight="1"/>
     <row r="10" spans="2:14" ht="50.1" customHeight="1">
-      <c r="C10" s="235" t="s">
+      <c r="C10" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="235" t="s">
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="225" t="s">
         <v>180</v>
       </c>
-      <c r="H10" s="235"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="235" t="s">
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="225" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
+      <c r="L10" s="225"/>
+      <c r="M10" s="225"/>
     </row>
     <row r="11" spans="2:14" ht="2.1" customHeight="1">
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="2:14" ht="50.1" customHeight="1">
-      <c r="C12" s="237" t="s">
+      <c r="C12" s="227" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="237"/>
-      <c r="E12" s="237"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="237" t="s">
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="227" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="237"/>
-      <c r="I12" s="237"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="235" t="s">
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="225" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
+      <c r="L12" s="225"/>
+      <c r="M12" s="225"/>
     </row>
     <row r="13" spans="2:14" ht="2.1" customHeight="1">
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="2:14" ht="50.1" customHeight="1">
-      <c r="C14" s="235" t="s">
+      <c r="C14" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="236"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="226"/>
+      <c r="H14" s="226"/>
+      <c r="I14" s="226"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="226"/>
+      <c r="L14" s="226"/>
+      <c r="M14" s="226"/>
     </row>
     <row r="15" spans="2:14" ht="2.1" customHeight="1">
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="2:14" ht="1.8" customHeight="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
     </row>
     <row r="17" ht="22.2" customHeight="1"/>
   </sheetData>
@@ -7042,8 +7025,8 @@
   </sheetPr>
   <dimension ref="A1:U266"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="C40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -7064,278 +7047,302 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="32"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="29" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="30"/>
+      <c r="F1" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="243"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C8" s="13"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <v>10</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C9" s="13"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <v>20</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C10" s="13"/>
-      <c r="D10" s="35" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>30</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C11" s="13"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="47">
         <v>40</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C12" s="13"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="E12" s="124">
+        <f>E8+E9+E10+E11</f>
+        <v>100</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="107" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="38">
         <v>10</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="38">
         <v>5</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="39">
+        <f t="shared" ref="G17:G20" si="0">SUM(E17:F17)</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="38">
         <v>20</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <v>15</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="38">
         <v>30</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <v>25</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="39">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="43">
+      <c r="E20" s="41">
         <v>40</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="41">
         <v>35</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="39">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
+      <c r="E21" s="43">
+        <f t="shared" ref="E21:G21" si="1">SUM(E17:E20)</f>
+        <v>100</v>
+      </c>
+      <c r="F21" s="43">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="94"/>
+      <c r="C22" s="90"/>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D25" s="244" t="s">
+      <c r="D25" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="246" t="s">
+      <c r="E25" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="246"/>
-      <c r="G25" s="247"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="237"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D26" s="245"/>
-      <c r="E26" s="248" t="s">
+      <c r="D26" s="235"/>
+      <c r="E26" s="238" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="248"/>
-      <c r="G26" s="249"/>
+      <c r="F26" s="238"/>
+      <c r="G26" s="239"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="245"/>
-      <c r="E27" s="52" t="s">
+      <c r="D27" s="235"/>
+      <c r="E27" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="53" t="s">
+      <c r="G27" s="50" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1"/>
@@ -7349,16 +7356,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="55">
+      <c r="E28" s="52">
         <v>5</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F28" s="52">
         <v>2</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="53">
         <v>10</v>
       </c>
       <c r="H28" s="1"/>
@@ -7372,16 +7379,16 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="55">
+      <c r="E29" s="52">
         <v>10</v>
       </c>
-      <c r="F29" s="55">
+      <c r="F29" s="52">
         <v>4</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="53">
         <v>20</v>
       </c>
       <c r="H29" s="1"/>
@@ -7395,16 +7402,16 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="55">
+      <c r="E30" s="52">
         <v>15</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F30" s="52">
         <v>6</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="53">
         <v>30</v>
       </c>
       <c r="H30" s="1"/>
@@ -7418,16 +7425,16 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="58">
+      <c r="E31" s="55">
         <v>20</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="55">
         <v>8</v>
       </c>
-      <c r="G31" s="59">
+      <c r="G31" s="56">
         <v>40</v>
       </c>
       <c r="H31" s="1"/>
@@ -7456,12 +7463,12 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="250" t="s">
+      <c r="D33" s="240" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="251"/>
-      <c r="F33" s="251"/>
-      <c r="G33" s="252"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="242"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -7488,12 +7495,15 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="131"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="125">
+        <f>SUM(F28:F31)</f>
+        <v>20</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -7505,12 +7515,15 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="63" t="s">
+      <c r="D36" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="132"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="126">
+        <f>SUM(E28:G28)</f>
+        <v>17</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -7522,12 +7535,15 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="132"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="126">
+        <f>SUM(E30:G30,E31:G31)</f>
+        <v>119</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -7539,12 +7555,15 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="63" t="s">
+      <c r="D38" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="132"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="126">
+        <f>SUM(E28:F31)</f>
+        <v>70</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -7556,12 +7575,15 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="133"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="127">
+        <f>SUM(E28:E31,G28:G31)</f>
+        <v>150</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -7587,15 +7609,15 @@
     <row r="41" spans="1:13" ht="30" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="12"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -7622,22 +7644,22 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="E43" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="67" t="s">
+      <c r="F43" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="67" t="s">
+      <c r="G43" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="I43" s="68" t="s">
+      <c r="I43" s="65" t="s">
         <v>46</v>
       </c>
       <c r="J43" s="1"/>
@@ -7649,22 +7671,22 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="69">
+      <c r="D44" s="66">
         <v>1</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="70">
+      <c r="F44" s="67">
         <v>18</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="67">
         <v>10</v>
       </c>
-      <c r="H44" s="70">
+      <c r="H44" s="67">
         <v>14</v>
       </c>
-      <c r="I44" s="71">
+      <c r="I44" s="68">
         <f>AVERAGE(F44:H44)</f>
         <v>14</v>
       </c>
@@ -7677,24 +7699,24 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="69">
+      <c r="D45" s="66">
         <v>2</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="70">
-        <v>17</v>
-      </c>
-      <c r="G45" s="70">
+      <c r="F45" s="67">
+        <v>2</v>
+      </c>
+      <c r="G45" s="67">
         <v>11</v>
       </c>
-      <c r="H45" s="70">
+      <c r="H45" s="67">
         <v>12</v>
       </c>
-      <c r="I45" s="71">
-        <f t="shared" ref="I45:I48" si="0">AVERAGE(F45:H45)</f>
-        <v>13.333333333333334</v>
+      <c r="I45" s="68">
+        <f t="shared" ref="I45:I48" si="2">AVERAGE(F45:H45)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -7705,23 +7727,23 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="69">
+      <c r="D46" s="66">
         <v>3</v>
       </c>
-      <c r="E46" s="70" t="s">
+      <c r="E46" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="67">
         <v>16</v>
       </c>
-      <c r="G46" s="70">
+      <c r="G46" s="67">
         <v>12</v>
       </c>
-      <c r="H46" s="70">
+      <c r="H46" s="67">
         <v>16</v>
       </c>
-      <c r="I46" s="71">
-        <f t="shared" si="0"/>
+      <c r="I46" s="68">
+        <f t="shared" si="2"/>
         <v>14.666666666666666</v>
       </c>
       <c r="J46" s="1"/>
@@ -7733,24 +7755,24 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="69">
+      <c r="D47" s="66">
         <v>4</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="70">
-        <v>15</v>
-      </c>
-      <c r="G47" s="70">
-        <v>13</v>
-      </c>
-      <c r="H47" s="70">
+      <c r="F47" s="67">
+        <v>5</v>
+      </c>
+      <c r="G47" s="67">
+        <v>5</v>
+      </c>
+      <c r="H47" s="67">
         <v>18</v>
       </c>
-      <c r="I47" s="71">
-        <f t="shared" si="0"/>
-        <v>15.333333333333334</v>
+      <c r="I47" s="68">
+        <f t="shared" si="2"/>
+        <v>9.3333333333333339</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -7761,23 +7783,23 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="72">
+      <c r="D48" s="69">
         <v>5</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="70">
         <v>14</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="70">
         <v>14</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="70">
         <v>13</v>
       </c>
-      <c r="I48" s="74">
-        <f t="shared" si="0"/>
+      <c r="I48" s="71">
+        <f t="shared" si="2"/>
         <v>13.666666666666666</v>
       </c>
       <c r="J48" s="1"/>
@@ -7804,12 +7826,12 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="238" t="s">
+      <c r="D50" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="239"/>
-      <c r="F50" s="239"/>
-      <c r="G50" s="240"/>
+      <c r="E50" s="229"/>
+      <c r="F50" s="229"/>
+      <c r="G50" s="230"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -7836,13 +7858,16 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="E52" s="76"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="88"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="85">
+        <f>SUM(F44:H45)</f>
+        <v>67</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -7853,13 +7878,16 @@
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="89"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="86">
+        <f>SUM(F44:F48)</f>
+        <v>55</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -7870,13 +7898,16 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="89"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="86">
+        <f>SUM(G46,G47,G48)</f>
+        <v>31</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -7887,13 +7918,16 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="89"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="86">
+        <f>SUM(G44:G48)</f>
+        <v>52</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -7904,13 +7938,16 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="80"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="90"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="87">
+        <f>SUM(I44,I46,I48)</f>
+        <v>42.333333333333329</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -8268,6 +8305,31 @@
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{97EBA138-7D3B-4DDB-B484-BC95EFAD1F95}">
+            <x14:iconSet iconSet="3Symbols2" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>12</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>12</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I44:I48</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8278,8 +8340,8 @@
   </sheetPr>
   <dimension ref="A1:U265"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="E12:F12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -8291,7 +8353,7 @@
     <col min="5" max="5" width="17.5546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="19.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.109375" style="3" customWidth="1"/>
@@ -8300,316 +8362,372 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="91" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="92"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="88" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="89"/>
+      <c r="F1" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="241" t="s">
+      <c r="C3" s="231" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="243"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C8" s="13"/>
-      <c r="D8" s="35" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="C8" s="11"/>
+      <c r="D8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="95">
+      <c r="E8" s="91">
         <v>10</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="92">
         <v>10</v>
       </c>
-      <c r="G8" s="134"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C9" s="13"/>
-      <c r="D9" s="35" t="s">
+      <c r="G8" s="128">
+        <f>PRODUCT(E8:F8)</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="C9" s="11"/>
+      <c r="D9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="91">
         <v>20</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="92">
         <v>20</v>
       </c>
-      <c r="G9" s="134"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-    </row>
-    <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C10" s="13"/>
-      <c r="D10" s="35" t="s">
+      <c r="G9" s="128">
+        <f t="shared" ref="G9:G11" si="0">PRODUCT(E9:F9)</f>
+        <v>400</v>
+      </c>
+      <c r="H9" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="C10" s="11"/>
+      <c r="D10" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="91">
         <v>30</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="92">
         <v>30</v>
       </c>
-      <c r="G10" s="134"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C11" s="13"/>
-      <c r="D11" s="35" t="s">
+      <c r="G10" s="128">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="C11" s="11"/>
+      <c r="D11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="91">
         <v>40</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="92">
         <v>40</v>
       </c>
-      <c r="G11" s="134"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="128">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="H11" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C12" s="13"/>
-      <c r="D12" s="102" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="E12" s="94">
+        <f t="shared" ref="E12:G12" si="1">SUM(E8:E11)</f>
+        <v>100</v>
+      </c>
+      <c r="F12" s="95">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="96">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="107" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="95">
+      <c r="E17" s="91">
         <v>28</v>
       </c>
-      <c r="F17" s="96">
+      <c r="F17" s="92">
         <v>30</v>
       </c>
-      <c r="G17" s="134"/>
+      <c r="G17" s="128">
+        <f>PRODUCT(E17:F17)</f>
+        <v>840</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="95">
+      <c r="E18" s="91">
         <v>30</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="92">
         <v>35</v>
       </c>
-      <c r="G18" s="134"/>
+      <c r="G18" s="128">
+        <f t="shared" ref="G18:G20" si="2">PRODUCT(E18:F18)</f>
+        <v>1050</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="91">
         <v>30</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="92">
         <v>40</v>
       </c>
-      <c r="G19" s="134"/>
+      <c r="G19" s="128">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="91">
         <v>29</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="92">
         <v>45</v>
       </c>
-      <c r="G20" s="134"/>
+      <c r="G20" s="128">
+        <f t="shared" si="2"/>
+        <v>1305</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="97"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="136"/>
+      <c r="E21" s="129">
+        <f t="shared" ref="E21:G21" si="3">SUM(E17:E20)</f>
+        <v>117</v>
+      </c>
+      <c r="F21" s="129">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="G21" s="130">
+        <f t="shared" si="3"/>
+        <v>4395</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D25" s="253" t="s">
+      <c r="D25" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="255"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="245"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F27" s="98">
         <v>10</v>
       </c>
-      <c r="G27" s="96">
+      <c r="G27" s="92">
         <v>120</v>
       </c>
-      <c r="H27" s="137"/>
+      <c r="H27" s="131">
+        <f>PRODUCT(F27:G27)</f>
+        <v>1200</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F28" s="98">
         <v>12</v>
       </c>
-      <c r="G28" s="96">
+      <c r="G28" s="92">
         <v>350</v>
       </c>
-      <c r="H28" s="137"/>
+      <c r="H28" s="131">
+        <f t="shared" ref="H28:H35" si="4">PRODUCT(F28:G28)</f>
+        <v>4200</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -8620,19 +8738,22 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="103">
+      <c r="F29" s="98">
         <v>19</v>
       </c>
-      <c r="G29" s="96">
+      <c r="G29" s="92">
         <v>110</v>
       </c>
-      <c r="H29" s="137"/>
+      <c r="H29" s="131">
+        <f t="shared" si="4"/>
+        <v>2090</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -8643,19 +8764,22 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="103">
+      <c r="F30" s="98">
         <v>5</v>
       </c>
-      <c r="G30" s="96">
+      <c r="G30" s="92">
         <v>580</v>
       </c>
-      <c r="H30" s="137"/>
+      <c r="H30" s="131">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -8666,19 +8790,22 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="103">
+      <c r="F31" s="98">
         <v>8</v>
       </c>
-      <c r="G31" s="96">
+      <c r="G31" s="92">
         <v>450</v>
       </c>
-      <c r="H31" s="137"/>
+      <c r="H31" s="131">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -8689,19 +8816,22 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="95" t="s">
+      <c r="E32" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="F32" s="103">
+      <c r="F32" s="98">
         <v>20</v>
       </c>
-      <c r="G32" s="96">
+      <c r="G32" s="92">
         <v>50</v>
       </c>
-      <c r="H32" s="137"/>
+      <c r="H32" s="131">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -8712,19 +8842,22 @@
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="95" t="s">
+      <c r="E33" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="103">
+      <c r="F33" s="98">
         <v>9</v>
       </c>
-      <c r="G33" s="96">
+      <c r="G33" s="92">
         <v>80</v>
       </c>
-      <c r="H33" s="137"/>
+      <c r="H33" s="131">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -8735,19 +8868,22 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="105" t="s">
+      <c r="E34" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="106">
+      <c r="F34" s="101">
         <v>4</v>
       </c>
-      <c r="G34" s="107">
+      <c r="G34" s="102">
         <v>50</v>
       </c>
-      <c r="H34" s="137"/>
+      <c r="H34" s="254">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -8761,10 +8897,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="108" t="s">
+      <c r="G35" s="253" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="138"/>
+      <c r="H35" s="255">
+        <f>SUM(H27:H34)</f>
+        <v>15910</v>
+      </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -8789,15 +8928,15 @@
     <row r="37" spans="1:13" ht="30" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="116" t="s">
+      <c r="C37" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="12"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -8824,16 +8963,16 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="109" t="s">
+      <c r="D39" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="111" t="s">
+      <c r="E39" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="111" t="s">
+      <c r="F39" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="112" t="s">
+      <c r="G39" s="107" t="s">
         <v>94</v>
       </c>
       <c r="H39" s="1"/>
@@ -8847,16 +8986,19 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="95">
+      <c r="E40" s="91">
         <v>10</v>
       </c>
-      <c r="F40" s="96">
+      <c r="F40" s="92">
         <v>35</v>
       </c>
-      <c r="G40" s="134"/>
+      <c r="G40" s="128">
+        <f>PRODUCT(E40:F40)</f>
+        <v>350</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -8868,16 +9010,19 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="95">
+      <c r="E41" s="91">
         <v>8</v>
       </c>
-      <c r="F41" s="96">
+      <c r="F41" s="92">
         <v>32</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="128">
+        <f t="shared" ref="G41:G44" si="5">PRODUCT(E41:F41)</f>
+        <v>256</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -8889,16 +9034,19 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="95">
+      <c r="E42" s="91">
         <v>12</v>
       </c>
-      <c r="F42" s="96">
+      <c r="F42" s="92">
         <v>33</v>
       </c>
-      <c r="G42" s="134"/>
+      <c r="G42" s="128">
+        <f t="shared" si="5"/>
+        <v>396</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -8910,16 +9058,19 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="95">
+      <c r="E43" s="91">
         <v>5</v>
       </c>
-      <c r="F43" s="96">
+      <c r="F43" s="92">
         <v>30</v>
       </c>
-      <c r="G43" s="134"/>
+      <c r="G43" s="128">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -8931,16 +9082,19 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="105">
+      <c r="E44" s="100">
         <v>4</v>
       </c>
-      <c r="F44" s="107">
+      <c r="F44" s="102">
         <v>38</v>
       </c>
-      <c r="G44" s="134"/>
+      <c r="G44" s="128">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -8952,12 +9106,15 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="108" t="s">
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="139"/>
+      <c r="G45" s="132">
+        <f>SUM(G40:G44)</f>
+        <v>1304</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -9472,8 +9629,8 @@
   </sheetPr>
   <dimension ref="A1:U256"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -9494,318 +9651,366 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="28"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="26"/>
+      <c r="F1" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="246" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="135" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="110" t="s">
+      <c r="G7" s="105" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C8" s="13"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="144">
+      <c r="E8" s="137">
         <v>5678</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="138">
         <v>1254</v>
       </c>
-      <c r="G8" s="146"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="139">
+        <f>E8-F8</f>
+        <v>4424</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C9" s="13"/>
-      <c r="D9" s="143" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="144">
+      <c r="E9" s="137">
         <v>2376</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="138">
         <v>1200</v>
       </c>
-      <c r="G9" s="146"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="139">
+        <f t="shared" ref="G9:G11" si="0">E9-F9</f>
+        <v>1176</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C10" s="13"/>
-      <c r="D10" s="143" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="144">
+      <c r="E10" s="137">
         <v>4765</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="138">
         <v>3989</v>
       </c>
-      <c r="G10" s="146"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="139">
+        <f t="shared" si="0"/>
+        <v>776</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C11" s="13"/>
-      <c r="D11" s="143" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="144">
+      <c r="E11" s="137">
         <v>1235</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="138">
         <v>1158</v>
       </c>
-      <c r="G11" s="146"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="139">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C12" s="13"/>
-      <c r="D12" s="147" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="148"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="E12" s="141">
+        <f t="shared" ref="E12:G12" si="1">SUM(E8:E11)</f>
+        <v>14054</v>
+      </c>
+      <c r="F12" s="168">
+        <f t="shared" si="1"/>
+        <v>7601</v>
+      </c>
+      <c r="G12" s="169">
+        <f t="shared" si="1"/>
+        <v>6453</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="156" t="s">
+      <c r="D14" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="107" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="154">
+      <c r="E17" s="147">
         <v>1100</v>
       </c>
-      <c r="F17" s="154">
+      <c r="F17" s="147">
         <v>30</v>
       </c>
-      <c r="G17" s="149"/>
+      <c r="G17" s="142">
+        <f>E17-F17</f>
+        <v>1070</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="154">
+      <c r="E18" s="147">
         <v>1200</v>
       </c>
-      <c r="F18" s="154">
+      <c r="F18" s="147">
         <v>35</v>
       </c>
-      <c r="G18" s="149"/>
+      <c r="G18" s="142">
+        <f t="shared" ref="G18:G20" si="2">E18-F18</f>
+        <v>1165</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="154">
+      <c r="E19" s="147">
         <v>1150</v>
       </c>
-      <c r="F19" s="154">
+      <c r="F19" s="147">
         <v>28</v>
       </c>
-      <c r="G19" s="149"/>
+      <c r="G19" s="142">
+        <f t="shared" si="2"/>
+        <v>1122</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="154">
+      <c r="E20" s="147">
         <v>1050</v>
       </c>
-      <c r="F20" s="154">
+      <c r="F20" s="147">
         <v>25</v>
       </c>
-      <c r="G20" s="149"/>
+      <c r="G20" s="142">
+        <f t="shared" si="2"/>
+        <v>1025</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D21" s="155" t="s">
+      <c r="D21" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
+      <c r="E21" s="143">
+        <f t="shared" ref="E21:G21" si="3">SUM(E17:E20)</f>
+        <v>4500</v>
+      </c>
+      <c r="F21" s="143">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="G21" s="144">
+        <f t="shared" si="3"/>
+        <v>4382</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D25" s="253" t="s">
+      <c r="D25" s="243" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="254"/>
-      <c r="F25" s="254"/>
-      <c r="G25" s="254"/>
-      <c r="H25" s="255"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="245"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D26" s="114" t="s">
+      <c r="D26" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="115" t="s">
+      <c r="F26" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="G26" s="115" t="s">
+      <c r="G26" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="50" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="154">
+      <c r="E27" s="147">
         <v>1500</v>
       </c>
-      <c r="F27" s="154">
+      <c r="F27" s="147">
         <v>90</v>
       </c>
-      <c r="G27" s="154">
+      <c r="G27" s="147">
         <f>13%*E27</f>
         <v>195</v>
       </c>
-      <c r="H27" s="149"/>
+      <c r="H27" s="142">
+        <f>E27-F27-G27</f>
+        <v>1215</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="154">
+      <c r="E28" s="147">
         <v>1200</v>
       </c>
-      <c r="F28" s="154">
+      <c r="F28" s="147">
         <v>25</v>
       </c>
-      <c r="G28" s="154">
-        <f t="shared" ref="G28:G31" si="0">13%*E28</f>
+      <c r="G28" s="147">
+        <f t="shared" ref="G28:G31" si="4">13%*E28</f>
         <v>156</v>
       </c>
-      <c r="H28" s="149"/>
+      <c r="H28" s="142">
+        <f t="shared" ref="H28:H31" si="5">E28-F28-G28</f>
+        <v>1019</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -9816,20 +10021,23 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="154">
+      <c r="E29" s="147">
         <v>1600</v>
       </c>
-      <c r="F29" s="154">
+      <c r="F29" s="147">
         <v>30</v>
       </c>
-      <c r="G29" s="154">
-        <f t="shared" si="0"/>
+      <c r="G29" s="147">
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
-      <c r="H29" s="149"/>
+      <c r="H29" s="142">
+        <f t="shared" si="5"/>
+        <v>1362</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -9840,20 +10048,23 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="143" t="s">
+      <c r="D30" s="136" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="154">
+      <c r="E30" s="147">
         <v>1253</v>
       </c>
-      <c r="F30" s="154">
+      <c r="F30" s="147">
         <v>24</v>
       </c>
-      <c r="G30" s="154">
-        <f t="shared" si="0"/>
+      <c r="G30" s="147">
+        <f t="shared" si="4"/>
         <v>162.89000000000001</v>
       </c>
-      <c r="H30" s="149"/>
+      <c r="H30" s="142">
+        <f t="shared" si="5"/>
+        <v>1066.1099999999999</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -9864,20 +10075,23 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="159" t="s">
+      <c r="D31" s="152" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="160">
+      <c r="E31" s="153">
         <v>1100</v>
       </c>
-      <c r="F31" s="160">
+      <c r="F31" s="153">
         <v>40</v>
       </c>
-      <c r="G31" s="160">
-        <f t="shared" si="0"/>
+      <c r="G31" s="153">
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="H31" s="149"/>
+      <c r="H31" s="142">
+        <f t="shared" si="5"/>
+        <v>917</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -9902,15 +10116,15 @@
     <row r="33" spans="1:13" ht="30" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="140" t="s">
+      <c r="C33" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="156" t="s">
+      <c r="D33" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="12"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -9937,16 +10151,16 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="109" t="s">
+      <c r="D35" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="111" t="s">
+      <c r="E35" s="106" t="s">
         <v>107</v>
       </c>
-      <c r="F35" s="111" t="s">
+      <c r="F35" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G35" s="107" t="s">
         <v>109</v>
       </c>
       <c r="H35" s="1"/>
@@ -9960,16 +10174,19 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="143" t="s">
+      <c r="D36" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="144">
+      <c r="E36" s="137">
         <v>50</v>
       </c>
-      <c r="F36" s="144">
+      <c r="F36" s="137">
         <v>30</v>
       </c>
-      <c r="G36" s="161"/>
+      <c r="G36" s="154">
+        <f>E36-F36</f>
+        <v>20</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -9981,16 +10198,19 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="144">
+      <c r="E37" s="137">
         <v>80</v>
       </c>
-      <c r="F37" s="144">
+      <c r="F37" s="137">
         <v>60</v>
       </c>
-      <c r="G37" s="161"/>
+      <c r="G37" s="154">
+        <f t="shared" ref="G37:G39" si="6">E37-F37</f>
+        <v>20</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -10002,16 +10222,19 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="143" t="s">
+      <c r="D38" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="144">
+      <c r="E38" s="137">
         <v>45</v>
       </c>
-      <c r="F38" s="144">
+      <c r="F38" s="137">
         <v>29</v>
       </c>
-      <c r="G38" s="161"/>
+      <c r="G38" s="154">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -10023,16 +10246,19 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="143" t="s">
+      <c r="D39" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="144">
+      <c r="E39" s="137">
         <v>48</v>
       </c>
-      <c r="F39" s="144">
+      <c r="F39" s="137">
         <v>40</v>
       </c>
-      <c r="G39" s="161"/>
+      <c r="G39" s="154">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -10044,16 +10270,19 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="159" t="s">
+      <c r="D40" s="152" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="163">
+      <c r="E40" s="156">
         <v>30</v>
       </c>
-      <c r="F40" s="163">
+      <c r="F40" s="156">
         <v>20</v>
       </c>
-      <c r="G40" s="162"/>
+      <c r="G40" s="155">
+        <f>E40-F40</f>
+        <v>10</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -10508,8 +10737,8 @@
   </sheetPr>
   <dimension ref="A1:U266"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -10530,252 +10759,258 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="28"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="26"/>
+      <c r="F1" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="259" t="s">
+      <c r="C3" s="249" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="251"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="156" t="s">
+      <c r="D5" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D8" s="15"/>
-      <c r="I8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D9" s="16"/>
-      <c r="I9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166">
+      <c r="E11" s="158"/>
+      <c r="F11" s="159">
         <v>10</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="I12" s="13"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D13" s="164" t="s">
+      <c r="D13" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="165"/>
-      <c r="F13" s="166">
+      <c r="E13" s="158"/>
+      <c r="F13" s="159">
         <v>5</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="I14" s="13"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D15" s="167"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="167"/>
-      <c r="I15" s="13"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="160"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="I16" s="13"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="165" t="s">
+      <c r="D17" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="165"/>
-      <c r="F17" s="170"/>
-      <c r="I17" s="13"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="163">
+        <f>(F11*F13)/2</f>
+        <v>25</v>
+      </c>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C19" s="13"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="3:9" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="24" spans="3:9" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="112" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D25" s="15"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D26" s="16"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="3:9" s="1" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="28" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D28" s="164" t="s">
+      <c r="D28" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="171">
+      <c r="E28" s="158"/>
+      <c r="F28" s="164">
         <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="158"/>
     </row>
     <row r="30" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D30" s="164" t="s">
+      <c r="D30" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166">
+      <c r="E30" s="158"/>
+      <c r="F30" s="159">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+      <c r="F31" s="158"/>
     </row>
     <row r="32" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D32" s="167"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="167"/>
+      <c r="D32" s="160"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="160"/>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D34" s="165" t="s">
+      <c r="D34" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="165"/>
-      <c r="F34" s="173"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="166">
+        <f>F28/F30</f>
+        <v>0.125</v>
+      </c>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:13" ht="2.1" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="118"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="113"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10802,14 +11037,14 @@
     <row r="38" spans="1:13" ht="30" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="140" t="s">
+      <c r="C38" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="D38" s="156" t="s">
+      <c r="D38" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10821,10 +11056,10 @@
     <row r="39" spans="1:13" ht="10.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10837,7 +11072,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="117" t="s">
+      <c r="D40" s="112" t="s">
         <v>117</v>
       </c>
       <c r="E40" s="1"/>
@@ -10854,7 +11089,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -10869,7 +11104,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10899,11 +11134,11 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="164" t="s">
+      <c r="D44" s="157" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="165"/>
-      <c r="F44" s="174">
+      <c r="E44" s="158"/>
+      <c r="F44" s="167">
         <v>2000</v>
       </c>
       <c r="G44" s="1"/>
@@ -10918,9 +11153,9 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="165"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -10933,11 +11168,11 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="164" t="s">
+      <c r="D46" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="165"/>
-      <c r="F46" s="171">
+      <c r="E46" s="158"/>
+      <c r="F46" s="164">
         <v>0.12</v>
       </c>
       <c r="G46" s="1"/>
@@ -10952,9 +11187,9 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="165"/>
-      <c r="F47" s="175"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -10967,11 +11202,11 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="164" t="s">
+      <c r="D48" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="165"/>
-      <c r="F48" s="166">
+      <c r="E48" s="158"/>
+      <c r="F48" s="159">
         <v>2</v>
       </c>
       <c r="G48" s="1"/>
@@ -10986,9 +11221,9 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="165"/>
+      <c r="D49" s="158"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -11001,9 +11236,9 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="167"/>
+      <c r="D50" s="160"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="160"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -11016,9 +11251,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -11031,11 +11266,14 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="165" t="s">
+      <c r="D52" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="E52" s="165"/>
-      <c r="F52" s="179"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="170">
+        <f>F44/(F46*F48)</f>
+        <v>8333.3333333333339</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -11047,10 +11285,10 @@
     <row r="53" spans="1:13" ht="2.1" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -11062,10 +11300,10 @@
     <row r="54" spans="1:13" ht="2.1" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="118"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="113"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -11107,14 +11345,14 @@
     <row r="57" spans="1:13" ht="30" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="140" t="s">
+      <c r="C57" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -11126,10 +11364,10 @@
     <row r="58" spans="1:13" ht="10.5" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -11142,7 +11380,7 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="117" t="s">
+      <c r="D59" s="112" t="s">
         <v>117</v>
       </c>
       <c r="E59" s="1"/>
@@ -11159,7 +11397,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="15"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -11174,7 +11412,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="16"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -11204,11 +11442,11 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="164" t="s">
+      <c r="D63" s="157" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="165"/>
-      <c r="F63" s="174">
+      <c r="E63" s="158"/>
+      <c r="F63" s="167">
         <v>10000</v>
       </c>
       <c r="G63" s="1"/>
@@ -11223,9 +11461,9 @@
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
+      <c r="D64" s="158"/>
+      <c r="E64" s="158"/>
+      <c r="F64" s="158"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -11238,11 +11476,11 @@
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="164" t="s">
+      <c r="D65" s="157" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="165"/>
-      <c r="F65" s="174">
+      <c r="E65" s="158"/>
+      <c r="F65" s="167">
         <v>5000</v>
       </c>
       <c r="G65" s="1"/>
@@ -11257,9 +11495,9 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="175"/>
+      <c r="D66" s="158"/>
+      <c r="E66" s="158"/>
+      <c r="F66" s="158"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -11272,11 +11510,11 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="164" t="s">
+      <c r="D67" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="E67" s="165"/>
-      <c r="F67" s="171">
+      <c r="E67" s="158"/>
+      <c r="F67" s="164">
         <v>0.05</v>
       </c>
       <c r="G67" s="1"/>
@@ -11291,9 +11529,9 @@
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -11306,9 +11544,9 @@
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="167"/>
+      <c r="D69" s="160"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="160"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -11321,9 +11559,9 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
+      <c r="D70" s="158"/>
+      <c r="E70" s="158"/>
+      <c r="F70" s="158"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -11336,12 +11574,15 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="165" t="s">
+      <c r="D71" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="165"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="24"/>
+      <c r="E71" s="158"/>
+      <c r="F71" s="163">
+        <f>((F63/F65)-1)/F67</f>
+        <v>20</v>
+      </c>
+      <c r="G71" s="22"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -11352,10 +11593,10 @@
     <row r="72" spans="1:13" ht="2.1" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -11365,10 +11606,10 @@
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" ht="2.1" customHeight="1">
-      <c r="C73" s="13"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="118"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="113"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="113"/>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:13" ht="30" customHeight="1"/>
@@ -11584,8 +11825,8 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -11606,292 +11847,368 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="28"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="26"/>
+      <c r="F1" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="246" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="106" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="108" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="110" t="s">
+      <c r="H7" s="105" t="s">
         <v>175</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C8" s="13"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="183">
+      <c r="E8" s="174">
         <v>100</v>
       </c>
-      <c r="F8" s="184">
+      <c r="F8" s="175">
         <v>0.1</v>
       </c>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="13"/>
+      <c r="G8" s="194">
+        <f>PRODUCT(E8:F8)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="195">
+        <f>E8-G8</f>
+        <v>90</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C9" s="13"/>
-      <c r="D9" s="143" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="183">
+      <c r="E9" s="174">
         <v>200</v>
       </c>
-      <c r="F9" s="184">
+      <c r="F9" s="175">
         <v>0.2</v>
       </c>
-      <c r="G9" s="203"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="13"/>
+      <c r="G9" s="194">
+        <f t="shared" ref="G9:G11" si="0">PRODUCT(E9:F9)</f>
+        <v>40</v>
+      </c>
+      <c r="H9" s="195">
+        <f t="shared" ref="H9:H10" si="1">E9-G9</f>
+        <v>160</v>
+      </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C10" s="13"/>
-      <c r="D10" s="143" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="183">
+      <c r="E10" s="174">
         <v>300</v>
       </c>
-      <c r="F10" s="184">
+      <c r="F10" s="175">
         <v>0.3</v>
       </c>
-      <c r="G10" s="203"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="13"/>
+      <c r="G10" s="194">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H10" s="195">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C11" s="13"/>
-      <c r="D11" s="185" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="186">
+      <c r="E11" s="177">
         <v>400</v>
       </c>
-      <c r="F11" s="187">
+      <c r="F11" s="178">
         <v>0.4</v>
       </c>
-      <c r="G11" s="203"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="13"/>
+      <c r="G11" s="194">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H11" s="195">
+        <f>E11-G11</f>
+        <v>240</v>
+      </c>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C12" s="13"/>
-      <c r="D12" s="188" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="205"/>
-      <c r="F12" s="207"/>
-      <c r="G12" s="205"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="13"/>
+      <c r="E12" s="196">
+        <f t="shared" ref="E12:G12" si="2">SUM(E8:E11)</f>
+        <v>1000</v>
+      </c>
+      <c r="F12" s="196">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="196">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H12" s="197">
+        <f>SUM(H8:H11)</f>
+        <v>700</v>
+      </c>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="135" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="53.25" customHeight="1">
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="154">
+      <c r="E17" s="147">
         <v>1100</v>
       </c>
-      <c r="F17" s="184">
+      <c r="F17" s="175">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="G17" s="189"/>
-      <c r="H17" s="149"/>
+      <c r="G17" s="180">
+        <f>E17*F17</f>
+        <v>61.050000000000004</v>
+      </c>
+      <c r="H17" s="142">
+        <f>E17-G17</f>
+        <v>1038.95</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="154">
+      <c r="E18" s="147">
         <v>1200</v>
       </c>
-      <c r="F18" s="184">
+      <c r="F18" s="175">
         <v>3.3300000000000003E-2</v>
       </c>
-      <c r="G18" s="189"/>
-      <c r="H18" s="149"/>
+      <c r="G18" s="180">
+        <f t="shared" ref="G18:G20" si="3">E18*F18</f>
+        <v>39.96</v>
+      </c>
+      <c r="H18" s="142">
+        <f t="shared" ref="H18:H19" si="4">E18-G18</f>
+        <v>1160.04</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="154">
+      <c r="E19" s="147">
         <v>1150</v>
       </c>
-      <c r="F19" s="184">
+      <c r="F19" s="175">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="G19" s="189"/>
-      <c r="H19" s="149"/>
+      <c r="G19" s="180">
+        <f t="shared" si="3"/>
+        <v>114.88500000000001</v>
+      </c>
+      <c r="H19" s="142">
+        <f t="shared" si="4"/>
+        <v>1035.115</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D20" s="185" t="s">
+      <c r="D20" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="192">
+      <c r="E20" s="183">
         <v>1050</v>
       </c>
-      <c r="F20" s="187">
+      <c r="F20" s="178">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="G20" s="189"/>
-      <c r="H20" s="149"/>
+      <c r="G20" s="180">
+        <f t="shared" si="3"/>
+        <v>47.774999999999999</v>
+      </c>
+      <c r="H20" s="142">
+        <f>E20-G20</f>
+        <v>1002.225</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="E21" s="181">
+        <f t="shared" ref="E21:H21" si="5">SUM(E17:E20)</f>
+        <v>4500</v>
+      </c>
+      <c r="F21" s="171">
+        <f t="shared" si="5"/>
+        <v>0.23420000000000002</v>
+      </c>
+      <c r="G21" s="181">
+        <f t="shared" si="5"/>
+        <v>263.67</v>
+      </c>
+      <c r="H21" s="182">
+        <f t="shared" si="5"/>
+        <v>4236.33</v>
+      </c>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="149" t="s">
         <v>132</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="10.5" customHeight="1"/>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1"/>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D28" s="200" t="s">
+      <c r="D28" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="194"/>
+      <c r="E28" s="185">
+        <v>350</v>
+      </c>
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D29" s="165" t="s">
+      <c r="D29" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="195"/>
+      <c r="E29" s="186">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="2.1" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="196"/>
+      <c r="D30" s="160"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -11905,10 +12222,13 @@
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="197"/>
+      <c r="E31" s="188">
+        <f>E28*E29</f>
+        <v>17.5</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -11922,8 +12242,8 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -11951,15 +12271,15 @@
     <row r="34" spans="1:13" ht="30" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="156" t="s">
+      <c r="D34" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="12"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -12001,8 +12321,8 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -12031,10 +12351,12 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="200" t="s">
+      <c r="D39" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="E39" s="194"/>
+      <c r="E39" s="185">
+        <v>120</v>
+      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -12048,10 +12370,12 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="165" t="s">
+      <c r="D40" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="201"/>
+      <c r="E40" s="192">
+        <v>20</v>
+      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -12065,8 +12389,8 @@
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="196"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="187"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -12080,12 +12404,15 @@
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="165" t="s">
+      <c r="D42" s="158" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="202"/>
+      <c r="E42" s="193">
+        <f>E40/E39</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="26"/>
+      <c r="G42" s="24"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -12097,8 +12424,8 @@
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -12158,8 +12485,8 @@
   </sheetPr>
   <dimension ref="A1:U280"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -12180,300 +12507,321 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="28"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="26"/>
+      <c r="F1" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="O7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D8" s="15"/>
-      <c r="I8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D9" s="16"/>
-      <c r="I9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="I10" s="13"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="I11" s="13"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="I12" s="13"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="I13" s="13"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D14" s="168" t="s">
+      <c r="D14" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="211"/>
-      <c r="I14" s="13"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="201">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="212"/>
-      <c r="I15" s="13"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="169"/>
-      <c r="F16" s="213"/>
-      <c r="I16" s="13"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="203">
+        <v>0.05</v>
+      </c>
+      <c r="I16" s="11"/>
     </row>
     <row r="17" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="I17" s="13"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="I17" s="11"/>
     </row>
     <row r="18" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="214" t="s">
+      <c r="D18" s="204" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="215"/>
-      <c r="F18" s="214"/>
-      <c r="I18" s="13"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="204">
+        <v>5</v>
+      </c>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="I19" s="13"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="I19" s="11"/>
     </row>
     <row r="20" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D20" s="169"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="169"/>
-      <c r="I20" s="13"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="162"/>
+      <c r="I20" s="11"/>
     </row>
     <row r="21" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="I21" s="13"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="161" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="169"/>
-      <c r="F22" s="216"/>
-      <c r="I22" s="13"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="206">
+        <f>F14/(1+F16)^F18</f>
+        <v>3917.6308323422945</v>
+      </c>
+      <c r="I22" s="11"/>
     </row>
     <row r="23" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C24" s="13"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
     <row r="25" spans="3:9" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="149" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="3:9" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
     <row r="29" spans="3:9" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D29" s="262" t="s">
+      <c r="D29" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="E29" s="262"/>
-      <c r="F29" s="262"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
     </row>
     <row r="30" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="3:9" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D31" s="21"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="3:9" s="1" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D33" s="119"/>
-      <c r="F33" s="119"/>
+      <c r="D33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="D34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1"/>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D36" s="165" t="s">
+      <c r="D36" s="158" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="208"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="198">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D38" s="165" t="s">
+      <c r="D38" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="217"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="207">
+        <v>30</v>
+      </c>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D40" s="209" t="s">
+      <c r="D40" s="199" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="210"/>
-      <c r="F40" s="209"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="199">
+        <v>360</v>
+      </c>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D41" s="165"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="165"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D42" s="167"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="167"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="160"/>
     </row>
     <row r="43" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
     </row>
     <row r="44" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D44" s="165" t="s">
+      <c r="D44" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="167"/>
-      <c r="F44" s="172"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="165">
+        <f>((1+F36)^(F38/F40))-1</f>
+        <v>9.4887929345830457E-3</v>
+      </c>
+      <c r="G44" s="256" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="45" spans="1:13" s="1" customFormat="1" ht="2.1" customHeight="1">
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
     </row>
     <row r="46" spans="1:13" ht="2.1" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="122"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="117"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -12486,9 +12834,9 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -12500,14 +12848,14 @@
     <row r="48" spans="1:13" ht="30" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="140" t="s">
+      <c r="C48" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="142" t="s">
+      <c r="D48" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -12519,12 +12867,12 @@
     <row r="49" spans="1:13" ht="10.5" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -12537,11 +12885,11 @@
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="262" t="s">
+      <c r="D50" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="262"/>
-      <c r="F50" s="262"/>
+      <c r="E50" s="252"/>
+      <c r="F50" s="252"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -12554,9 +12902,9 @@
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="18"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -12569,9 +12917,9 @@
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="22"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="20"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -12599,9 +12947,9 @@
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="119"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="119"/>
+      <c r="F54" s="114"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -12614,9 +12962,9 @@
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="17"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -12644,12 +12992,14 @@
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="165" t="s">
+      <c r="D57" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="167"/>
-      <c r="F57" s="217"/>
-      <c r="G57" s="126"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="207">
+        <v>5</v>
+      </c>
+      <c r="G57" s="121"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -12661,10 +13011,10 @@
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="126"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="121"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -12676,12 +13026,14 @@
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="209" t="s">
+      <c r="D59" s="199" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="210"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="126"/>
+      <c r="E59" s="200"/>
+      <c r="F59" s="199">
+        <v>2</v>
+      </c>
+      <c r="G59" s="121"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -12693,10 +13045,10 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="126"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="121"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -12708,10 +13060,10 @@
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="126"/>
+      <c r="D61" s="160"/>
+      <c r="E61" s="158"/>
+      <c r="F61" s="160"/>
+      <c r="G61" s="121"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -12723,10 +13075,10 @@
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="126"/>
+      <c r="D62" s="158"/>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="121"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -12738,12 +13090,17 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="165" t="s">
+      <c r="D63" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="167"/>
-      <c r="F63" s="218"/>
-      <c r="G63" s="126"/>
+      <c r="E63" s="160"/>
+      <c r="F63" s="208">
+        <f>F57^2+2*F57*F59+F59^2</f>
+        <v>49</v>
+      </c>
+      <c r="G63" s="257" t="s">
+        <v>215</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -12754,11 +13111,11 @@
     <row r="64" spans="1:13" ht="2.1" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="126"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="121"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -12769,11 +13126,11 @@
     <row r="65" spans="1:13" ht="2.1" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="126"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="115"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="121"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -12785,10 +13142,10 @@
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -12800,10 +13157,10 @@
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -12814,14 +13171,14 @@
     <row r="68" spans="1:13" ht="30" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="140" t="s">
+      <c r="C68" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="142" t="s">
+      <c r="D68" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="8"/>
-      <c r="F68" s="9"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -12833,10 +13190,10 @@
     <row r="69" spans="1:13" ht="10.5" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -12849,11 +13206,11 @@
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="262" t="s">
+      <c r="D70" s="252" t="s">
         <v>117</v>
       </c>
-      <c r="E70" s="262"/>
-      <c r="F70" s="262"/>
+      <c r="E70" s="252"/>
+      <c r="F70" s="252"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -12866,9 +13223,9 @@
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -12881,9 +13238,9 @@
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="22"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="20"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -12911,9 +13268,9 @@
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="119"/>
+      <c r="D74" s="114"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="119"/>
+      <c r="F74" s="114"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -12926,9 +13283,9 @@
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="17"/>
+      <c r="D75" s="15"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="15"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -12956,11 +13313,13 @@
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="165" t="s">
+      <c r="D77" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="E77" s="167"/>
-      <c r="F77" s="217"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="207">
+        <v>4</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -12973,9 +13332,9 @@
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="200"/>
-      <c r="E78" s="200"/>
-      <c r="F78" s="200"/>
+      <c r="D78" s="191"/>
+      <c r="E78" s="191"/>
+      <c r="F78" s="191"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -12988,11 +13347,13 @@
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="209" t="s">
+      <c r="D79" s="199" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="210"/>
-      <c r="F79" s="209"/>
+      <c r="E79" s="200"/>
+      <c r="F79" s="199">
+        <v>6</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -13005,9 +13366,9 @@
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
+      <c r="D80" s="158"/>
+      <c r="E80" s="158"/>
+      <c r="F80" s="158"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -13020,9 +13381,9 @@
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="167"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -13035,9 +13396,9 @@
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
+      <c r="D82" s="158"/>
+      <c r="E82" s="158"/>
+      <c r="F82" s="158"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -13050,11 +13411,14 @@
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="165" t="s">
+      <c r="D83" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="167"/>
-      <c r="F83" s="218"/>
+      <c r="E83" s="160"/>
+      <c r="F83" s="208">
+        <f>F77^3+3*(F77^2)*F79+3*F77*F79^2+F79^3</f>
+        <v>1000</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -13066,10 +13430,10 @@
     <row r="84" spans="1:13" ht="2.1" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -13079,10 +13443,10 @@
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" ht="2.1" customHeight="1">
-      <c r="C85" s="13"/>
-      <c r="D85" s="118"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="118"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="113"/>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:13" ht="30" customHeight="1"/>
@@ -13303,8 +13667,8 @@
   </sheetPr>
   <dimension ref="A1:U264"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.6640625" defaultRowHeight="21.9" customHeight="1"/>
@@ -13325,259 +13689,274 @@
     <col min="14" max="16384" width="25.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="27" customFormat="1" ht="30" customHeight="1">
-      <c r="D1" s="28"/>
-      <c r="F1" s="129" t="s">
+    <row r="1" spans="2:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="D1" s="26"/>
+      <c r="F1" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="2:21" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="256" t="s">
+      <c r="C3" s="246" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="258"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="248"/>
     </row>
     <row r="4" spans="2:21" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="135" t="s">
         <v>212</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="N6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C7" s="11"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="M7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C8" s="13"/>
-      <c r="D8" s="152" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="219">
+      <c r="E8" s="209">
         <v>20</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C9" s="13"/>
-      <c r="D9" s="152" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="219">
+      <c r="E9" s="209">
         <v>22</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C10" s="13"/>
-      <c r="D10" s="152" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="219">
+      <c r="E10" s="209">
         <v>24</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C11" s="13"/>
-      <c r="D11" s="181" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="220">
+      <c r="E11" s="210">
         <v>25</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="C12" s="13"/>
-      <c r="D12" s="182" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="232"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+      <c r="E12" s="222">
+        <f>AVERAGE(E8:E11)</f>
+        <v>22.75</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="2:21" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:21" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="16" spans="2:21" s="1" customFormat="1" ht="37.5" customHeight="1">
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="111" t="s">
+      <c r="F16" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="107" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="221">
+      <c r="E17" s="211">
         <v>18</v>
       </c>
-      <c r="F17" s="221">
+      <c r="F17" s="211">
         <v>16</v>
       </c>
-      <c r="G17" s="222"/>
+      <c r="G17" s="212">
+        <f>AVERAGE(E17:F17)</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="223">
+      <c r="E18" s="213">
         <v>5</v>
       </c>
-      <c r="F18" s="223">
+      <c r="F18" s="213">
         <v>9</v>
       </c>
-      <c r="G18" s="222"/>
+      <c r="G18" s="212">
+        <f t="shared" ref="G18:G19" si="0">AVERAGE(E18:F18)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="221">
+      <c r="E19" s="211">
         <v>13</v>
       </c>
-      <c r="F19" s="221">
+      <c r="F19" s="211">
         <v>14</v>
       </c>
-      <c r="G19" s="222"/>
+      <c r="G19" s="212">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="224">
+      <c r="E20" s="214">
         <v>16</v>
       </c>
-      <c r="F20" s="224">
+      <c r="F20" s="214">
         <v>11</v>
       </c>
-      <c r="G20" s="222"/>
+      <c r="G20" s="212">
+        <f>AVERAGE(E20:F20)</f>
+        <v>13.5</v>
+      </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="133" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1"/>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D24" s="253" t="s">
+      <c r="D24" s="243" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="254"/>
-      <c r="F24" s="254"/>
-      <c r="G24" s="255"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="244"/>
+      <c r="G24" s="245"/>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="115" t="s">
+      <c r="F25" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="123" t="s">
+      <c r="G25" s="118" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="D26" s="152" t="s">
+      <c r="D26" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="E26" s="153">
+      <c r="E26" s="146">
         <v>1500</v>
       </c>
-      <c r="F26" s="153">
+      <c r="F26" s="146">
         <v>1000</v>
       </c>
-      <c r="G26" s="225">
+      <c r="G26" s="215">
         <v>2000</v>
       </c>
     </row>
@@ -13585,16 +13964,16 @@
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="153">
+      <c r="E27" s="146">
         <v>1200</v>
       </c>
-      <c r="F27" s="153">
+      <c r="F27" s="146">
         <v>1999</v>
       </c>
-      <c r="G27" s="225">
+      <c r="G27" s="215">
         <v>1896</v>
       </c>
       <c r="H27" s="1"/>
@@ -13607,16 +13986,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="152" t="s">
+      <c r="D28" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="153">
+      <c r="E28" s="146">
         <v>1600</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="146">
         <v>2500</v>
       </c>
-      <c r="G28" s="225">
+      <c r="G28" s="215">
         <v>2156</v>
       </c>
       <c r="H28" s="1"/>
@@ -13629,16 +14008,16 @@
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="152" t="s">
+      <c r="D29" s="145" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="153">
+      <c r="E29" s="146">
         <v>1253</v>
       </c>
-      <c r="F29" s="153">
+      <c r="F29" s="146">
         <v>1978</v>
       </c>
-      <c r="G29" s="225">
+      <c r="G29" s="215">
         <v>1265</v>
       </c>
       <c r="H29" s="1"/>
@@ -13651,16 +14030,16 @@
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="150" t="s">
         <v>163</v>
       </c>
-      <c r="E30" s="158">
+      <c r="E30" s="151">
         <v>1100</v>
       </c>
-      <c r="F30" s="158">
+      <c r="F30" s="151">
         <v>1562</v>
       </c>
-      <c r="G30" s="226">
+      <c r="G30" s="216">
         <v>2563</v>
       </c>
       <c r="H30" s="1"/>
@@ -13688,8 +14067,8 @@
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="119"/>
-      <c r="E32" s="119"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -13718,10 +14097,13 @@
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="227" t="s">
+      <c r="D34" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="233"/>
+      <c r="E34" s="223">
+        <f>AVERAGE(E26:E30)</f>
+        <v>1330.6</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -13735,8 +14117,8 @@
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -13750,10 +14132,13 @@
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="199" t="s">
+      <c r="D36" s="190" t="s">
         <v>165</v>
       </c>
-      <c r="E36" s="234"/>
+      <c r="E36" s="224">
+        <f>AVERAGE(F26:F30)</f>
+        <v>1807.8</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -13767,8 +14152,8 @@
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -13782,10 +14167,13 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="199" t="s">
+      <c r="D38" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="E38" s="234"/>
+      <c r="E38" s="224">
+        <f>AVERAGE(G26:G30)</f>
+        <v>1976</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -13799,8 +14187,8 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -13814,8 +14202,8 @@
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="119"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -13858,15 +14246,15 @@
     <row r="43" spans="1:13" ht="30" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="142" t="s">
+      <c r="D43" s="135" t="s">
         <v>202</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="12"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -13893,28 +14281,28 @@
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="109" t="s">
+      <c r="D45" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="111" t="s">
+      <c r="F45" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="H45" s="113" t="s">
+      <c r="H45" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="I45" s="111" t="s">
+      <c r="I45" s="106" t="s">
         <v>171</v>
       </c>
-      <c r="J45" s="111" t="s">
+      <c r="J45" s="106" t="s">
         <v>172</v>
       </c>
-      <c r="K45" s="112" t="s">
+      <c r="K45" s="107" t="s">
         <v>173</v>
       </c>
       <c r="L45" s="1"/>
@@ -13924,24 +14312,33 @@
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="152" t="s">
+      <c r="D46" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="221">
+      <c r="E46" s="211">
         <v>20</v>
       </c>
-      <c r="F46" s="221">
+      <c r="F46" s="211">
         <v>19</v>
       </c>
-      <c r="G46" s="228"/>
-      <c r="H46" s="221">
+      <c r="G46" s="218">
+        <f>AVERAGE(E46:F46)</f>
+        <v>19.5</v>
+      </c>
+      <c r="H46" s="211">
         <v>18</v>
       </c>
-      <c r="I46" s="221">
+      <c r="I46" s="211">
         <v>19</v>
       </c>
-      <c r="J46" s="228"/>
-      <c r="K46" s="229"/>
+      <c r="J46" s="218">
+        <f>AVERAGE(H46:I46)</f>
+        <v>18.5</v>
+      </c>
+      <c r="K46" s="219">
+        <f>AVERAGE(G46,J46)</f>
+        <v>19</v>
+      </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
@@ -13949,24 +14346,33 @@
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="152" t="s">
+      <c r="D47" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="221">
+      <c r="E47" s="211">
         <v>11</v>
       </c>
-      <c r="F47" s="221">
+      <c r="F47" s="211">
         <v>15</v>
       </c>
-      <c r="G47" s="228"/>
-      <c r="H47" s="221">
+      <c r="G47" s="218">
+        <f t="shared" ref="G47:G48" si="1">AVERAGE(E47:F47)</f>
+        <v>13</v>
+      </c>
+      <c r="H47" s="211">
         <v>14</v>
       </c>
-      <c r="I47" s="221">
+      <c r="I47" s="211">
         <v>14</v>
       </c>
-      <c r="J47" s="228"/>
-      <c r="K47" s="229"/>
+      <c r="J47" s="218">
+        <f t="shared" ref="J47:J49" si="2">AVERAGE(H47:I47)</f>
+        <v>14</v>
+      </c>
+      <c r="K47" s="219">
+        <f t="shared" ref="K47:K49" si="3">AVERAGE(G47,J47)</f>
+        <v>13.5</v>
+      </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
@@ -13974,24 +14380,33 @@
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="152" t="s">
+      <c r="D48" s="145" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="221">
+      <c r="E48" s="211">
         <v>15</v>
       </c>
-      <c r="F48" s="221">
+      <c r="F48" s="211">
         <v>14</v>
       </c>
-      <c r="G48" s="228"/>
-      <c r="H48" s="221">
+      <c r="G48" s="218">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="H48" s="211">
         <v>15</v>
       </c>
-      <c r="I48" s="221">
+      <c r="I48" s="211">
         <v>10</v>
       </c>
-      <c r="J48" s="228"/>
-      <c r="K48" s="229"/>
+      <c r="J48" s="218">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="K48" s="219">
+        <f t="shared" si="3"/>
+        <v>13.5</v>
+      </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
@@ -13999,24 +14414,33 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="224">
+      <c r="E49" s="214">
         <v>5</v>
       </c>
-      <c r="F49" s="224">
+      <c r="F49" s="214">
         <v>11</v>
       </c>
-      <c r="G49" s="230"/>
-      <c r="H49" s="224">
+      <c r="G49" s="220">
+        <f>AVERAGE(E49:F49)</f>
+        <v>8</v>
+      </c>
+      <c r="H49" s="214">
         <v>15</v>
       </c>
-      <c r="I49" s="224">
+      <c r="I49" s="214">
         <v>9</v>
       </c>
-      <c r="J49" s="230"/>
-      <c r="K49" s="231"/>
+      <c r="J49" s="220">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="K49" s="221">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
